--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19220" yWindow="460" windowWidth="19180" windowHeight="10540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="38540" yWindow="2560" windowWidth="25400" windowHeight="15540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Green Line Switches" sheetId="9" r:id="rId1"/>
+    <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
     <sheet name="GREEN_0" sheetId="5" r:id="rId2"/>
     <sheet name="GREEN_3" sheetId="6" r:id="rId3"/>
     <sheet name="GREEN_1_2" sheetId="1" r:id="rId4"/>
     <sheet name="GREEN_4_5" sheetId="7" r:id="rId5"/>
-    <sheet name="Green Line Crossing" sheetId="8" r:id="rId6"/>
-    <sheet name="Red Line" sheetId="2" r:id="rId7"/>
-    <sheet name="Green Line" sheetId="4" r:id="rId8"/>
+    <sheet name="RED_SWITCHES" sheetId="12" r:id="rId6"/>
+    <sheet name="RED_12" sheetId="10" r:id="rId7"/>
+    <sheet name="RED_6_11" sheetId="11" r:id="rId8"/>
+    <sheet name="Green Line Crossing" sheetId="8" r:id="rId9"/>
+    <sheet name="Red Line" sheetId="2" r:id="rId10"/>
+    <sheet name="Green Line" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="173">
   <si>
     <t>D13:C12</t>
   </si>
@@ -475,13 +478,91 @@
   </si>
   <si>
     <t>SWITCH STATE</t>
+  </si>
+  <si>
+    <t>C-9</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>E-15,J-52</t>
+  </si>
+  <si>
+    <t>U-77:C-9</t>
+  </si>
+  <si>
+    <t>U-77:GO</t>
+  </si>
+  <si>
+    <t>D-10:STOP</t>
+  </si>
+  <si>
+    <t>D-10:C-9</t>
+  </si>
+  <si>
+    <t>U-77:STOP</t>
+  </si>
+  <si>
+    <t>D-10:GO</t>
+  </si>
+  <si>
+    <t>E-15</t>
+  </si>
+  <si>
+    <t>A-1:F-16</t>
+  </si>
+  <si>
+    <t>C-9:STOP</t>
+  </si>
+  <si>
+    <t>F-16:STOP</t>
+  </si>
+  <si>
+    <t>E-15:F-16</t>
+  </si>
+  <si>
+    <t>F-16:GO</t>
+  </si>
+  <si>
+    <t>J-52</t>
+  </si>
+  <si>
+    <t>J-52:GO</t>
+  </si>
+  <si>
+    <t>J-53:STOP</t>
+  </si>
+  <si>
+    <t>N-66:J-52</t>
+  </si>
+  <si>
+    <t>J-52:J-53</t>
+  </si>
+  <si>
+    <t>N-66:STOP</t>
+  </si>
+  <si>
+    <t>J-52:STOP</t>
+  </si>
+  <si>
+    <t>N-66:GO</t>
+  </si>
+  <si>
+    <t>F16_J52</t>
+  </si>
+  <si>
+    <t>J53_N66</t>
+  </si>
+  <si>
+    <t>E-16:STOP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,6 +600,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -537,7 +625,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -547,8 +635,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -588,16 +678,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -876,7 +972,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,12 +1212,1943 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S53"/>
+  <sheetViews>
+    <sheetView topLeftCell="B27" zoomScale="69" workbookViewId="0">
+      <selection activeCell="D40" sqref="A40:D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="M20" s="6"/>
+      <c r="N20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="N27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="N28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,10 +3172,10 @@
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="15" t="s">
         <v>146</v>
       </c>
@@ -1369,7 +3396,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,7 +3552,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H10" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2162,7 +4189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2467,6 +4494,512 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="14">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2513,1935 +5046,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="D2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S53"/>
-  <sheetViews>
-    <sheetView topLeftCell="B27" zoomScale="69" workbookViewId="0">
-      <selection activeCell="D40" sqref="A40:D42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="M20" s="6"/>
-      <c r="N20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D27" s="4"/>
-      <c r="N27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D28" s="4"/>
-      <c r="N28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="C42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:M1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38540" yWindow="2560" windowWidth="25400" windowHeight="15540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="25400" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="RED_SWITCHES" sheetId="12" r:id="rId6"/>
     <sheet name="RED_12" sheetId="10" r:id="rId7"/>
     <sheet name="RED_6_11" sheetId="11" r:id="rId8"/>
-    <sheet name="Green Line Crossing" sheetId="8" r:id="rId9"/>
-    <sheet name="Red Line" sheetId="2" r:id="rId10"/>
-    <sheet name="Green Line" sheetId="4" r:id="rId11"/>
+    <sheet name="GREEN_CROSSING" sheetId="8" r:id="rId9"/>
+    <sheet name="RED_CROSSING" sheetId="13" r:id="rId10"/>
+    <sheet name="Red Line" sheetId="2" r:id="rId11"/>
+    <sheet name="Green Line" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="183">
   <si>
     <t>D13:C12</t>
   </si>
@@ -556,6 +557,36 @@
   </si>
   <si>
     <t>E-16:STOP</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>SECTION</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>INACTIVE</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>RED</t>
   </si>
 </sst>
 </file>
@@ -638,7 +669,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -682,6 +713,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1214,6 +1248,62 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="17">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1244,19 +1334,19 @@
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
@@ -1598,7 +1688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
@@ -1618,18 +1708,18 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
@@ -3172,10 +3262,10 @@
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
         <v>146</v>
       </c>
@@ -4650,7 +4740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4674,10 +4764,10 @@
       <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
         <v>146</v>
       </c>
@@ -5000,48 +5090,62 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="17">
+        <v>19</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="25400" windowHeight="15460" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="RED_6_11" sheetId="11" r:id="rId8"/>
     <sheet name="GREEN_CROSSING" sheetId="8" r:id="rId9"/>
     <sheet name="RED_CROSSING" sheetId="13" r:id="rId10"/>
-    <sheet name="Red Line" sheetId="2" r:id="rId11"/>
+    <sheet name="TRACK_DETAILS" sheetId="2" r:id="rId11"/>
     <sheet name="Green Line" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="158">
   <si>
     <t>D13:C12</t>
   </si>
@@ -199,150 +199,12 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>U77:C9</t>
-  </si>
-  <si>
-    <t>C9:D10</t>
-  </si>
-  <si>
-    <t>D10:C9</t>
-  </si>
-  <si>
-    <t>F16:E15</t>
-  </si>
-  <si>
-    <t>E15:F16</t>
-  </si>
-  <si>
-    <t>F16:A1</t>
-  </si>
-  <si>
-    <t>A1:F16</t>
-  </si>
-  <si>
-    <t>H27:T76</t>
-  </si>
-  <si>
-    <t>H27:H28</t>
-  </si>
-  <si>
-    <t>H28:H27</t>
-  </si>
-  <si>
-    <t>T76:H27</t>
-  </si>
-  <si>
-    <t>R72:H32</t>
-  </si>
-  <si>
-    <t>H32:H33</t>
-  </si>
-  <si>
-    <t>H33:H32</t>
-  </si>
-  <si>
-    <t>H32:R72</t>
-  </si>
-  <si>
-    <t>Q71:H38</t>
-  </si>
-  <si>
-    <t>H38:H39</t>
-  </si>
-  <si>
-    <t>H39:H38</t>
-  </si>
-  <si>
-    <t>H38:Q71</t>
-  </si>
-  <si>
-    <t>H42:H44</t>
-  </si>
-  <si>
-    <t>H44:H43</t>
-  </si>
-  <si>
-    <t>O67:H44</t>
-  </si>
-  <si>
-    <t>H44:O67</t>
-  </si>
-  <si>
-    <t>J52:J53</t>
-  </si>
-  <si>
-    <t>J52:N66</t>
-  </si>
-  <si>
-    <t>N66:J52</t>
-  </si>
-  <si>
-    <t>J53:J52</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>H27</t>
-  </si>
-  <si>
-    <t>H32</t>
-  </si>
-  <si>
-    <t>H38</t>
-  </si>
-  <si>
-    <t>H43</t>
-  </si>
-  <si>
-    <t>J52</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
     <t>DE15</t>
   </si>
   <si>
-    <t>F16-H27</t>
-  </si>
-  <si>
-    <t>T76-R72</t>
-  </si>
-  <si>
-    <t>H28-H32</t>
-  </si>
-  <si>
-    <t>H33-H83</t>
-  </si>
-  <si>
-    <t>Q71-O67</t>
-  </si>
-  <si>
-    <t>H39-H43</t>
-  </si>
-  <si>
-    <t>H44-J52</t>
-  </si>
-  <si>
-    <t>J53-N66</t>
-  </si>
-  <si>
-    <t>occupied:direction</t>
-  </si>
-  <si>
-    <t>Occupied</t>
-  </si>
-  <si>
-    <t>Unoccupied</t>
-  </si>
-  <si>
-    <t>Bi directional track format</t>
-  </si>
-  <si>
     <t>Switch ID</t>
   </si>
   <si>
@@ -559,9 +421,6 @@
     <t>E-16:STOP</t>
   </si>
   <si>
-    <t>Line</t>
-  </si>
-  <si>
     <t>SECTION</t>
   </si>
   <si>
@@ -587,13 +446,86 @@
   </si>
   <si>
     <t>RED</t>
+  </si>
+  <si>
+    <t>DEFAULT - YY152:J62</t>
+  </si>
+  <si>
+    <t>ALTERNATE - J61:J62</t>
+  </si>
+  <si>
+    <t>DEFAULT - I57:ZZ151</t>
+  </si>
+  <si>
+    <t>ALTERNATE - I57:J58</t>
+  </si>
+  <si>
+    <t>DEFAULT - D13:C12</t>
+  </si>
+  <si>
+    <t>ALTERNATE - A1:D13</t>
+  </si>
+  <si>
+    <t>DEFAULT - Z150:F28</t>
+  </si>
+  <si>
+    <t>ALTERNATE - F28:G29</t>
+  </si>
+  <si>
+    <t>DEFAULT - M76:N77</t>
+  </si>
+  <si>
+    <t>ALTERNATE - N77:R101</t>
+  </si>
+  <si>
+    <t>ALTERNATE - Q100:N85</t>
+  </si>
+  <si>
+    <t>DEFAULT - N85:O86</t>
+  </si>
+  <si>
+    <t>DEFAULT - U77:C9</t>
+  </si>
+  <si>
+    <t>ALTERNATE - D10:C9</t>
+  </si>
+  <si>
+    <t>DEFAULT - A1:F16</t>
+  </si>
+  <si>
+    <t>DEFAULT - J52:J53</t>
+  </si>
+  <si>
+    <t>ALTERNATE - E15:F16</t>
+  </si>
+  <si>
+    <t>ALTERNATE - J52:N66</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>TRAIN SPACING</t>
+  </si>
+  <si>
+    <t>BLOCK FAILURE SPAN</t>
+  </si>
+  <si>
+    <t>NEXT AND PREVIOUS BLOCK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,19 +564,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -656,68 +625,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="14" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="16" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
+    <cellStyle name="20% - Accent1" xfId="11" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="12" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="13" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="14" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="15" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="16" builtinId="50"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -730,7 +761,756 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1003,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1016,218 +1796,236 @@
     <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="G1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1235,7 +2033,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1251,7 +2049,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,38 +2061,38 @@
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="21">
         <v>47</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>181</v>
+      <c r="D2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1304,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,361 +2122,429 @@
     <col min="13" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="D2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>96</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1708,18 +2574,18 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
@@ -3237,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3246,36 +4112,36 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="1"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -3283,22 +4149,22 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="19">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="19">
         <v>0</v>
       </c>
       <c r="H2" s="8"/>
@@ -3313,18 +4179,18 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="8"/>
@@ -3339,13 +4205,16 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="8"/>
@@ -3360,13 +4229,16 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="8"/>
@@ -3381,13 +4253,16 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="8"/>
@@ -3477,6 +4352,43 @@
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="8" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="6" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:F6">
+      <formula1>"DEFAULT, ALTERNATE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3486,7 +4398,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3494,57 +4406,57 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="19">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="19">
         <v>3</v>
       </c>
       <c r="G2" s="8"/>
@@ -3556,17 +4468,18 @@
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="8"/>
@@ -3578,14 +4491,16 @@
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="8"/>
@@ -3597,13 +4512,16 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="8"/>
@@ -3615,13 +4533,16 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="8"/>
@@ -3633,6 +4554,46 @@
       <c r="O6" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:F6">
+      <formula1>"DEFAULT, ALTERNATE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3642,7 +4603,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3661,57 +4622,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19">
         <v>2</v>
       </c>
       <c r="L2" s="2"/>
@@ -3723,23 +4684,23 @@
     </row>
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="2"/>
@@ -3751,23 +4712,23 @@
     </row>
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+      <c r="B4" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="3"/>
@@ -3779,23 +4740,23 @@
     </row>
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L5" s="4"/>
@@ -3808,19 +4769,19 @@
     <row r="6" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="4"/>
@@ -3831,19 +4792,19 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="L7" s="3"/>
@@ -3854,19 +4815,19 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="3"/>
@@ -3877,19 +4838,19 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="7"/>
@@ -3900,19 +4861,19 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="4"/>
@@ -4270,6 +5231,71 @@
       <c r="A39" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:H4">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="14" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",H7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",H7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",H5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",H5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G8">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H10">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",H8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",H8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:H10">
+      <formula1>"DEFAULT, ALTERNATE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4280,7 +5306,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4295,57 +5321,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="19">
         <v>4</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="19">
         <v>5</v>
       </c>
       <c r="K2" s="8"/>
@@ -4358,23 +5384,23 @@
     </row>
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
+      <c r="B3" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="8"/>
@@ -4387,23 +5413,23 @@
     </row>
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
+      <c r="B4" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="K4" s="8"/>
@@ -4416,23 +5442,23 @@
     </row>
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
+      <c r="B5" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="14" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="8"/>
@@ -4447,19 +5473,19 @@
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="8"/>
@@ -4473,19 +5499,19 @@
     <row r="7" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="8"/>
@@ -4500,19 +5526,19 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="8"/>
@@ -4527,19 +5553,19 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="8"/>
@@ -4554,19 +5580,19 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="8"/>
@@ -4578,6 +5604,79 @@
       <c r="S10" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H7">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",H5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",H5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:H8">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:H10">
+      <formula1>"DEFAULT, ALTERNATE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4586,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4600,135 +5699,135 @@
     <col min="6" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>6</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>11</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>12</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>169</v>
+      <c r="C4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4738,10 +5837,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4754,93 +5853,102 @@
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="E1" s="35"/>
+      <c r="F1" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4848,16 +5956,46 @@
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:F6">
+      <formula1>"DEFAULT, ALTERNATE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4872,228 +6010,359 @@
     <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="E2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="19">
         <v>6</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H7">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",H5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",H5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:H8">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ALTERNATE">
+      <formula>NOT(ISERROR(SEARCH("ALTERNATE",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="DEFAULT">
+      <formula>NOT(ISERROR(SEARCH("DEFAULT",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:H10">
+      <formula1>"DEFAULT, ALTERNATE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5104,48 +6373,57 @@
     <col min="4" max="5" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="17">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="31">
         <v>19</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylemonto/Documents/Pitt/Senior/COE 1186/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylemonto/Documents/Pitt/Senior/COE 1186/ECE1186/TrainSystem/src/com/rogueone/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="7740" yWindow="4160" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="159">
   <si>
     <t>D13:C12</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>NEXT AND PREVIOUS BLOCK</t>
+  </si>
+  <si>
+    <t>Q-100:N-85</t>
   </si>
 </sst>
 </file>
@@ -1785,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2009,8 +2012,8 @@
       <c r="E7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>67</v>
+      <c r="F7" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>88</v>
@@ -2104,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5306,7 +5309,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5442,7 +5445,7 @@
     </row>
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="8"/>

--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="4160" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="7740" yWindow="4160" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="162">
   <si>
     <t>D13:C12</t>
   </si>
@@ -515,6 +515,15 @@
   </si>
   <si>
     <t>Q-100:N-85</t>
+  </si>
+  <si>
+    <t>ACTIVE BETWEEN</t>
+  </si>
+  <si>
+    <t>17,18,19,20,21</t>
+  </si>
+  <si>
+    <t>49,50,51,52,53,54,55,56,57,58,59</t>
   </si>
 </sst>
 </file>
@@ -628,7 +637,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -646,8 +655,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -726,13 +737,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
@@ -744,8 +755,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="20% - Accent1" xfId="11" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="12" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="13" builtinId="38"/>
@@ -757,11 +771,13 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
@@ -1788,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2049,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2062,9 +2078,10 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>154</v>
       </c>
@@ -2080,8 +2097,11 @@
       <c r="E1" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>135</v>
       </c>
@@ -2096,6 +2116,9 @@
       </c>
       <c r="E2" s="22" t="s">
         <v>134</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6365,7 +6388,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6374,6 +6397,7 @@
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -6392,6 +6416,9 @@
       <c r="E1" s="18" t="s">
         <v>133</v>
       </c>
+      <c r="F1" s="34" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -6403,13 +6430,15 @@
       <c r="C2" s="31">
         <v>19</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -6422,13 +6451,14 @@
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="4160" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="164">
   <si>
     <t>D13:C12</t>
   </si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>49,50,51,52,53,54,55,56,57,58,59</t>
+  </si>
+  <si>
+    <t>MANUAL SWITCHS - GREEN</t>
+  </si>
+  <si>
+    <t>3,</t>
   </si>
 </sst>
 </file>
@@ -637,7 +643,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -657,8 +663,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -749,17 +757,20 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="20% - Accent1" xfId="11" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="12" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="13" builtinId="38"/>
@@ -772,12 +783,14 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
@@ -2067,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2117,7 +2130,7 @@
       <c r="E2" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="36" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2130,15 +2143,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -2155,18 +2168,20 @@
       <c r="B1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="C1" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -2175,7 +2190,9 @@
       <c r="B2" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -2577,6 +2594,7 @@
     <mergeCell ref="D1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2600,18 +2618,18 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
@@ -4154,10 +4172,10 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="18" t="s">
         <v>100</v>
       </c>
@@ -4447,10 +4465,10 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="18" t="s">
         <v>100</v>
       </c>
@@ -4657,15 +4675,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -5356,15 +5374,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -5889,10 +5907,10 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="18" t="s">
         <v>100</v>
       </c>
@@ -6046,15 +6064,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -6388,7 +6406,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="8540" yWindow="2400" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>

--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="2400" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="8540" yWindow="2400" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="207">
   <si>
     <t>D13:C12</t>
   </si>
@@ -352,18 +352,12 @@
     <t>E-15,J-52</t>
   </si>
   <si>
-    <t>U-77:C-9</t>
-  </si>
-  <si>
     <t>U-77:GO</t>
   </si>
   <si>
     <t>D-10:STOP</t>
   </si>
   <si>
-    <t>D-10:C-9</t>
-  </si>
-  <si>
     <t>U-77:STOP</t>
   </si>
   <si>
@@ -373,18 +367,12 @@
     <t>E-15</t>
   </si>
   <si>
-    <t>A-1:F-16</t>
-  </si>
-  <si>
     <t>C-9:STOP</t>
   </si>
   <si>
     <t>F-16:STOP</t>
   </si>
   <si>
-    <t>E-15:F-16</t>
-  </si>
-  <si>
     <t>F-16:GO</t>
   </si>
   <si>
@@ -397,9 +385,6 @@
     <t>J-53:STOP</t>
   </si>
   <si>
-    <t>N-66:J-52</t>
-  </si>
-  <si>
     <t>J-52:J-53</t>
   </si>
   <si>
@@ -418,9 +403,6 @@
     <t>J53_N66</t>
   </si>
   <si>
-    <t>E-16:STOP</t>
-  </si>
-  <si>
     <t>SECTION</t>
   </si>
   <si>
@@ -530,13 +512,160 @@
   </si>
   <si>
     <t>3,</t>
+  </si>
+  <si>
+    <t>MANUAL SWITCHS - RED</t>
+  </si>
+  <si>
+    <t>6,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>DEFAULT1</t>
+  </si>
+  <si>
+    <t>DEFAULT2</t>
+  </si>
+  <si>
+    <t>F-16:A-1</t>
+  </si>
+  <si>
+    <t>E-15:STOP</t>
+  </si>
+  <si>
+    <t>F-16:E-15</t>
+  </si>
+  <si>
+    <t>E-15:GO</t>
+  </si>
+  <si>
+    <t>H-27</t>
+  </si>
+  <si>
+    <t>H-27:H-28</t>
+  </si>
+  <si>
+    <t>H-27:GO</t>
+  </si>
+  <si>
+    <t>H-28:STOP</t>
+  </si>
+  <si>
+    <t>T-76:STOP</t>
+  </si>
+  <si>
+    <t>H-27:STOP</t>
+  </si>
+  <si>
+    <t>H-28:GO</t>
+  </si>
+  <si>
+    <t>H-27:T-76</t>
+  </si>
+  <si>
+    <t>T-76:GO</t>
+  </si>
+  <si>
+    <t>H-33</t>
+  </si>
+  <si>
+    <t>H-33:H-32</t>
+  </si>
+  <si>
+    <t>H-33:GO</t>
+  </si>
+  <si>
+    <t>H-32:STOP</t>
+  </si>
+  <si>
+    <t>R-72:STOP</t>
+  </si>
+  <si>
+    <t>H-33:STOP</t>
+  </si>
+  <si>
+    <t>H-32:GO</t>
+  </si>
+  <si>
+    <t>H-33:R-72</t>
+  </si>
+  <si>
+    <t>R-72:GO</t>
+  </si>
+  <si>
+    <t>H-38</t>
+  </si>
+  <si>
+    <t>H-38:H-39</t>
+  </si>
+  <si>
+    <t>H-38:GO</t>
+  </si>
+  <si>
+    <t>H-39:STOP</t>
+  </si>
+  <si>
+    <t>Q-71:STOP</t>
+  </si>
+  <si>
+    <t>H-38:STOP</t>
+  </si>
+  <si>
+    <t>H-39:GO</t>
+  </si>
+  <si>
+    <t>H-38:Q-71</t>
+  </si>
+  <si>
+    <t>Q-71:GO</t>
+  </si>
+  <si>
+    <t>H-44</t>
+  </si>
+  <si>
+    <t>H-44:H-43</t>
+  </si>
+  <si>
+    <t>H-44:GO</t>
+  </si>
+  <si>
+    <t>H-43:STOP</t>
+  </si>
+  <si>
+    <t>O-67:STOP</t>
+  </si>
+  <si>
+    <t>H-44:STOP</t>
+  </si>
+  <si>
+    <t>H-43:GO</t>
+  </si>
+  <si>
+    <t>H-44:O-67</t>
+  </si>
+  <si>
+    <t>O-67:GO</t>
+  </si>
+  <si>
+    <t>J-53:GO</t>
+  </si>
+  <si>
+    <t>J-52:N-66</t>
+  </si>
+  <si>
+    <t>C-9:U-77</t>
+  </si>
+  <si>
+    <t>C-9:GO</t>
+  </si>
+  <si>
+    <t>C-9:D-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -589,8 +718,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +777,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -666,7 +822,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -763,10 +919,20 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2042,7 +2208,7 @@
         <v>78</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>88</v>
@@ -2096,27 +2262,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="F1" s="34" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>42</v>
@@ -2125,13 +2291,13 @@
         <v>47</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2143,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2152,6 +2318,7 @@
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -2163,37 +2330,41 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="42" t="s">
+        <v>159</v>
+      </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -2590,9 +2761,6 @@
       <c r="N26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4172,10 +4340,10 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="18" t="s">
         <v>100</v>
       </c>
@@ -4197,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>15</v>
@@ -4225,7 +4393,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="21">
@@ -4465,10 +4633,10 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="18" t="s">
         <v>100</v>
       </c>
@@ -4489,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>16</v>
@@ -4514,7 +4682,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="21">
@@ -4675,15 +4843,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -4699,7 +4867,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>97</v>
@@ -4729,7 +4897,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="24">
@@ -4757,7 +4925,7 @@
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="24">
@@ -4785,7 +4953,7 @@
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="24">
@@ -5374,15 +5542,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -5398,7 +5566,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>99</v>
@@ -5429,7 +5597,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="24">
@@ -5458,7 +5626,7 @@
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="24">
@@ -5487,7 +5655,7 @@
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="24">
@@ -5727,10 +5895,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5746,132 +5914,356 @@
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="L1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="M1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="N1" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>6</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>7</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>8</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>9</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>10</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>11</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="F7" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>11</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="H7" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="K7" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="M7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
         <v>12</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C8" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="I8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="N8" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5907,10 +6299,10 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="18" t="s">
         <v>100</v>
       </c>
@@ -5920,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>101</v>
@@ -5938,7 +6330,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="26">
@@ -6064,15 +6456,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -6084,7 +6476,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>103</v>
@@ -6093,10 +6485,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G2" s="19">
         <v>6</v>
@@ -6113,7 +6505,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="24">
@@ -6140,7 +6532,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="24">
@@ -6167,7 +6559,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="24">
@@ -6420,42 +6812,42 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="F1" s="34" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C2" s="31">
         <v>19</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="2400" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="38400" yWindow="2560" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>DE15</t>
-  </si>
-  <si>
     <t>Switch ID</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>MANUAL SWITCHS - GREEN</t>
   </si>
   <si>
-    <t>3,</t>
-  </si>
-  <si>
     <t>MANUAL SWITCHS - RED</t>
   </si>
   <si>
@@ -659,6 +653,12 @@
   </si>
   <si>
     <t>C-9:D-10</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>0,3,</t>
   </si>
 </sst>
 </file>
@@ -919,12 +919,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,6 +927,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2003,7 +2003,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>31</v>
@@ -2012,19 +2012,19 @@
         <v>33</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" s="10"/>
       <c r="K1" s="11"/>
@@ -2037,25 +2037,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="10"/>
       <c r="K2" s="11"/>
@@ -2068,25 +2068,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -2100,25 +2100,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
@@ -2132,25 +2132,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -2164,25 +2164,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
@@ -2196,25 +2196,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
@@ -2262,27 +2262,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>42</v>
@@ -2291,13 +2291,13 @@
         <v>47</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2330,40 +2330,40 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>150</v>
-      </c>
       <c r="C1" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>157</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>159</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -2786,18 +2786,18 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
@@ -4340,12 +4340,12 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>15</v>
@@ -4393,7 +4393,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="21">
@@ -4633,12 +4633,12 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -4657,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>16</v>
@@ -4682,7 +4682,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="21">
@@ -4843,15 +4843,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="42"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -4864,13 +4864,13 @@
     </row>
     <row r="2" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>19</v>
@@ -4897,7 +4897,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="24">
@@ -4925,7 +4925,7 @@
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="24">
@@ -4953,7 +4953,7 @@
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="24">
@@ -5542,15 +5542,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="42"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -5563,13 +5563,13 @@
     </row>
     <row r="2" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>23</v>
@@ -5597,7 +5597,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="24">
@@ -5626,7 +5626,7 @@
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="24">
@@ -5655,7 +5655,7 @@
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="24">
@@ -5897,8 +5897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5916,46 +5916,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>34</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -5963,219 +5963,219 @@
         <v>6</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="L2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>7</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="G3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="I3" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="J3" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="26" t="s">
+      <c r="N3" s="26" t="s">
         <v>172</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>8</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="G4" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="I4" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="J4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="N4" s="26" t="s">
         <v>181</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>9</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="G5" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="I5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="J5" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="26" t="s">
+      <c r="N5" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>10</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="F6" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="G6" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="I6" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="J6" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="26" t="s">
+      <c r="N6" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -6183,43 +6183,43 @@
         <v>11</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="G7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="26" t="s">
+      <c r="N7" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -6227,43 +6227,43 @@
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="L8" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="26" t="s">
+      <c r="M8" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="N8" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6276,7 +6276,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6299,12 +6299,12 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6312,16 +6312,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>54</v>
+      <c r="E2" s="26" t="s">
+        <v>205</v>
       </c>
       <c r="F2" s="19">
         <v>12</v>
@@ -6330,7 +6330,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="26">
@@ -6456,15 +6456,15 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="42"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -6473,22 +6473,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="G2" s="19">
         <v>6</v>
@@ -6505,7 +6505,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="24">
@@ -6532,7 +6532,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="24">
@@ -6559,7 +6559,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="24">
@@ -6812,42 +6812,42 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="31">
         <v>19</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>

--- a/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
+++ b/TrainSystem/src/com/rogueone/assets/wayside_fun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2560" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="6480" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GREEN_SWITCHES" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="205">
   <si>
     <t>D13:C12</t>
   </si>
@@ -362,12 +362,6 @@
   </si>
   <si>
     <t>E-15</t>
-  </si>
-  <si>
-    <t>C-9:STOP</t>
-  </si>
-  <si>
-    <t>F-16:STOP</t>
   </si>
   <si>
     <t>F-16:GO</t>
@@ -2208,7 +2202,7 @@
         <v>77</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>87</v>
@@ -2262,27 +2256,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>126</v>
-      </c>
       <c r="F1" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>42</v>
@@ -2291,13 +2285,13 @@
         <v>47</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="F2" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2330,16 +2324,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -2354,16 +2348,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -4365,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>15</v>
@@ -4393,7 +4387,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="21">
@@ -4657,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>16</v>
@@ -4682,7 +4676,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="21">
@@ -4867,7 +4861,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>96</v>
@@ -4897,7 +4891,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="24">
@@ -4925,7 +4919,7 @@
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="24">
@@ -4953,7 +4947,7 @@
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="24">
@@ -5566,7 +5560,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>98</v>
@@ -5597,7 +5591,7 @@
     <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="24">
@@ -5626,7 +5620,7 @@
     <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="24">
@@ -5655,7 +5649,7 @@
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="24">
@@ -5897,8 +5891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5922,7 +5916,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>93</v>
@@ -5934,7 +5928,7 @@
         <v>93</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>93</v>
@@ -5966,40 +5960,40 @@
         <v>107</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>109</v>
+      <c r="E2" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>73</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -6007,43 +6001,43 @@
         <v>7</v>
       </c>
       <c r="B3" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="E3" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="26" t="s">
+      <c r="N3" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -6051,43 +6045,43 @@
         <v>8</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="E4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="N4" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -6095,43 +6089,43 @@
         <v>9</v>
       </c>
       <c r="B5" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="E5" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="I5" s="26" t="s">
+      <c r="N5" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -6139,43 +6133,43 @@
         <v>10</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="E6" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="26" t="s">
+      <c r="N6" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -6183,43 +6177,43 @@
         <v>11</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="N7" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -6230,7 +6224,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>103</v>
@@ -6238,11 +6232,11 @@
       <c r="E8" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>108</v>
+      <c r="F8" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>105</v>
@@ -6251,10 +6245,10 @@
         <v>104</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>105</v>
@@ -6262,8 +6256,8 @@
       <c r="M8" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="21" t="s">
-        <v>108</v>
+      <c r="N8" s="26" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6312,7 +6306,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>100</v>
@@ -6321,7 +6315,7 @@
         <v>53</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F2" s="19">
         <v>12</v>
@@ -6330,7 +6324,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="26">
@@ -6476,7 +6470,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>102</v>
@@ -6485,10 +6479,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" s="19">
         <v>6</v>
@@ -6505,7 +6499,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="24">
@@ -6532,7 +6526,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="24">
@@ -6559,7 +6553,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="24">
@@ -6812,42 +6806,42 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>126</v>
-      </c>
       <c r="F1" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="31">
         <v>19</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>127</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
